--- a/data/test-report.xlsx
+++ b/data/test-report.xlsx
@@ -424,7 +424,7 @@
         <v>Add product in cart and validate Cart count</v>
       </c>
       <c r="C2" t="str">
-        <v>5641 ms</v>
+        <v>5597 ms</v>
       </c>
       <c r="D2" t="str">
         <v>passed</v>
@@ -438,7 +438,7 @@
         <v>Add product in cart and validate cart</v>
       </c>
       <c r="C3" t="str">
-        <v>4147 ms</v>
+        <v>3613 ms</v>
       </c>
       <c r="D3" t="str">
         <v>passed</v>
@@ -452,7 +452,7 @@
         <v>Cart selected product</v>
       </c>
       <c r="C4" t="str">
-        <v>3725 ms</v>
+        <v>5427 ms</v>
       </c>
       <c r="D4" t="str">
         <v>passed</v>
@@ -466,7 +466,7 @@
         <v>Sort product Low to High</v>
       </c>
       <c r="C5" t="str">
-        <v>3888 ms</v>
+        <v>2887 ms</v>
       </c>
       <c r="D5" t="str">
         <v>passed</v>

--- a/data/test-report.xlsx
+++ b/data/test-report.xlsx
@@ -424,7 +424,7 @@
         <v>Add product in cart and validate Cart count</v>
       </c>
       <c r="C2" t="str">
-        <v>5597 ms</v>
+        <v>12510 ms</v>
       </c>
       <c r="D2" t="str">
         <v>passed</v>
@@ -438,7 +438,7 @@
         <v>Add product in cart and validate cart</v>
       </c>
       <c r="C3" t="str">
-        <v>3613 ms</v>
+        <v>3932 ms</v>
       </c>
       <c r="D3" t="str">
         <v>passed</v>
@@ -452,7 +452,7 @@
         <v>Cart selected product</v>
       </c>
       <c r="C4" t="str">
-        <v>5427 ms</v>
+        <v>4319 ms</v>
       </c>
       <c r="D4" t="str">
         <v>passed</v>
@@ -466,7 +466,7 @@
         <v>Sort product Low to High</v>
       </c>
       <c r="C5" t="str">
-        <v>2887 ms</v>
+        <v>4032 ms</v>
       </c>
       <c r="D5" t="str">
         <v>passed</v>

--- a/data/test-report.xlsx
+++ b/data/test-report.xlsx
@@ -452,7 +452,7 @@
         <v>Cart selected product</v>
       </c>
       <c r="C4" t="str">
-        <v>3725 ms</v>
+        <v>6008 ms</v>
       </c>
       <c r="D4" t="str">
         <v>passed</v>
